--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07904FB9-E345-5640-991B-9EF1E7831ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BD51C-E68D-6F47-812F-4FE6CD90F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="500" windowWidth="32020" windowHeight="21660" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -346,37 +346,37 @@
                   <c:v>3.9999999999999002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,10 +614,10 @@
                   <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,37 +1083,37 @@
                   <c:v>3.9999999999999002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,10 +1351,10 @@
                   <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.00000000000019E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3420,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C22">
         <v>0.250000000000002</v>
@@ -3431,7 +3431,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C23">
         <v>0.220000000000002</v>
@@ -3442,7 +3442,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C24">
         <v>0.190000000000002</v>
@@ -3453,7 +3453,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C25">
         <v>0.160000000000002</v>
@@ -3464,7 +3464,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
         <v>0.130000000000002</v>
@@ -3475,7 +3475,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C27">
         <v>0.100000000000002</v>
@@ -3486,7 +3486,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C28">
         <v>7.0000000000001797E-2</v>
@@ -3497,7 +3497,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C29">
         <v>4.0000000000001798E-2</v>
@@ -3508,7 +3508,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C30">
         <v>1.00000000000019E-2</v>
@@ -3519,10 +3519,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3530,10 +3530,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3541,10 +3541,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3552,10 +3552,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3563,10 +3563,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3574,10 +3574,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3585,10 +3585,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3596,10 +3596,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3607,10 +3607,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3618,10 +3618,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3629,10 +3629,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3640,10 +3640,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3651,10 +3651,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3662,10 +3662,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3673,10 +3673,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3684,10 +3684,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3695,10 +3695,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3706,10 +3706,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3717,10 +3717,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3728,10 +3728,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3739,10 +3739,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3750,10 +3750,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3761,10 +3761,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3772,10 +3772,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3783,10 +3783,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3794,10 +3794,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3805,10 +3805,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3816,10 +3816,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3827,10 +3827,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3838,10 +3838,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3849,10 +3849,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3860,10 +3860,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3871,10 +3871,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3882,10 +3882,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3893,10 +3893,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3904,10 +3904,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3915,10 +3915,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3937,10 +3937,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3948,10 +3948,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3959,10 +3959,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3970,10 +3970,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,10 +3981,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3992,10 +3992,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4003,10 +4003,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4014,10 +4014,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4025,10 +4025,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4036,10 +4036,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4047,10 +4047,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4058,10 +4058,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4069,10 +4069,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4080,10 +4080,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4091,10 +4091,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4102,10 +4102,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,10 +4113,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4124,10 +4124,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4135,10 +4135,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4146,10 +4146,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4157,10 +4157,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4168,10 +4168,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4179,10 +4179,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,10 +4190,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4201,10 +4201,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,10 +4212,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,10 +4223,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,10 +4245,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,10 +4278,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4289,10 +4289,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,10 +4300,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.00000000000019E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BD51C-E68D-6F47-812F-4FE6CD90F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FC8ED-A707-104E-AB11-D1CCEDDE8C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="500" windowWidth="32020" windowHeight="21660" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FC8ED-A707-104E-AB11-D1CCEDDE8C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD65BB-78DC-D544-8809-5FF9B46F6A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
@@ -527,97 +527,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.84999999999999987</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78999999999999992</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7599999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66999999999999993</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6399999999999999</c:v>
+                  <c:v>0.52000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61</c:v>
+                  <c:v>0.48000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.44000000000000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37000000000000099</c:v>
+                  <c:v>0.159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34000000000000102</c:v>
+                  <c:v>0.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.310000000000002</c:v>
+                  <c:v>7.99999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28000000000000203</c:v>
+                  <c:v>3.9999999999999002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.250000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.220000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.190000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.160000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.130000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.100000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0000000000001797E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0000000000001798E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,97 +1264,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.84999999999999987</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78999999999999992</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7599999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66999999999999993</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6399999999999999</c:v>
+                  <c:v>0.52000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61</c:v>
+                  <c:v>0.48000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.44000000000000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37000000000000099</c:v>
+                  <c:v>0.159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34000000000000102</c:v>
+                  <c:v>0.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.310000000000002</c:v>
+                  <c:v>7.99999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28000000000000203</c:v>
+                  <c:v>3.9999999999999002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.250000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.220000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.190000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.160000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.130000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.100000000000002</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0000000000001797E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0000000000001798E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.00000000000019E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,7 +3176,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3203,7 +3203,7 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.84999999999999987</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>0.76</v>
       </c>
       <c r="C3">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>0.72</v>
       </c>
       <c r="C4">
-        <v>0.78999999999999992</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>0.68</v>
       </c>
       <c r="C5">
-        <v>0.7599999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,7 +3247,7 @@
         <v>0.64000000000000012</v>
       </c>
       <c r="C6">
-        <v>0.73</v>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,7 +3258,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,7 +3269,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C8">
-        <v>0.66999999999999993</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>0.52000000000000013</v>
       </c>
       <c r="C9">
-        <v>0.6399999999999999</v>
+        <v>0.52000000000000013</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,7 +3291,7 @@
         <v>0.48000000000000015</v>
       </c>
       <c r="C10">
-        <v>0.61</v>
+        <v>0.48000000000000015</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>0.44000000000000017</v>
       </c>
       <c r="C11">
-        <v>0.57999999999999996</v>
+        <v>0.44000000000000017</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>0.40000000000000019</v>
       </c>
       <c r="C12">
-        <v>0.55000000000000004</v>
+        <v>0.40000000000000019</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>0.36</v>
       </c>
       <c r="C13">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
         <v>0.32</v>
       </c>
       <c r="C14">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C15">
-        <v>0.46</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
         <v>0.24</v>
       </c>
       <c r="C16">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>0.19999999999999901</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.19999999999999901</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,7 +3379,7 @@
         <v>0.159999999999999</v>
       </c>
       <c r="C18">
-        <v>0.37000000000000099</v>
+        <v>0.159999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>0.119999999999999</v>
       </c>
       <c r="C19">
-        <v>0.34000000000000102</v>
+        <v>0.119999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>7.99999999999991E-2</v>
       </c>
       <c r="C20">
-        <v>0.310000000000002</v>
+        <v>7.99999999999991E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>3.9999999999999002E-2</v>
       </c>
       <c r="C21">
-        <v>0.28000000000000203</v>
+        <v>3.9999999999999002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,7 +3423,7 @@
         <v>0.01</v>
       </c>
       <c r="C22">
-        <v>0.250000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,7 +3434,7 @@
         <v>0.01</v>
       </c>
       <c r="C23">
-        <v>0.220000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>0.01</v>
       </c>
       <c r="C24">
-        <v>0.190000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3456,7 @@
         <v>0.01</v>
       </c>
       <c r="C25">
-        <v>0.160000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,7 +3467,7 @@
         <v>0.01</v>
       </c>
       <c r="C26">
-        <v>0.130000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>0.01</v>
       </c>
       <c r="C27">
-        <v>0.100000000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,7 +3489,7 @@
         <v>0.01</v>
       </c>
       <c r="C28">
-        <v>7.0000000000001797E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>0.01</v>
       </c>
       <c r="C29">
-        <v>4.0000000000001798E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>0.01</v>
       </c>
       <c r="C30">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,7 +3522,7 @@
         <v>0.01</v>
       </c>
       <c r="C31">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>0.01</v>
       </c>
       <c r="C32">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3544,7 @@
         <v>0.01</v>
       </c>
       <c r="C33">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>0.01</v>
       </c>
       <c r="C34">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
         <v>0.01</v>
       </c>
       <c r="C35">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +3577,7 @@
         <v>0.01</v>
       </c>
       <c r="C36">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
         <v>0.01</v>
       </c>
       <c r="C37">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>0.01</v>
       </c>
       <c r="C38">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>0.01</v>
       </c>
       <c r="C39">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
         <v>0.01</v>
       </c>
       <c r="C40">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
         <v>0.01</v>
       </c>
       <c r="C41">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,7 +3643,7 @@
         <v>0.01</v>
       </c>
       <c r="C42">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>0.01</v>
       </c>
       <c r="C43">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
         <v>0.01</v>
       </c>
       <c r="C44">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>0.01</v>
       </c>
       <c r="C45">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>0.01</v>
       </c>
       <c r="C46">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,7 +3698,7 @@
         <v>0.01</v>
       </c>
       <c r="C47">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>0.01</v>
       </c>
       <c r="C48">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>0.01</v>
       </c>
       <c r="C49">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>0.01</v>
       </c>
       <c r="C50">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>0.01</v>
       </c>
       <c r="C51">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>0.01</v>
       </c>
       <c r="C52">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>0.01</v>
       </c>
       <c r="C53">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>0.01</v>
       </c>
       <c r="C54">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>0.01</v>
       </c>
       <c r="C55">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,7 +3797,7 @@
         <v>0.01</v>
       </c>
       <c r="C56">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>0.01</v>
       </c>
       <c r="C57">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
         <v>0.01</v>
       </c>
       <c r="C58">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>0.01</v>
       </c>
       <c r="C59">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>0.01</v>
       </c>
       <c r="C60">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>0.01</v>
       </c>
       <c r="C61">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>0.01</v>
       </c>
       <c r="C62">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
         <v>0.01</v>
       </c>
       <c r="C63">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
         <v>0.01</v>
       </c>
       <c r="C64">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
         <v>0.01</v>
       </c>
       <c r="C65">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3907,7 +3907,7 @@
         <v>0.01</v>
       </c>
       <c r="C66">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,7 +3918,7 @@
         <v>0.01</v>
       </c>
       <c r="C67">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>0.01</v>
       </c>
       <c r="C68">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>0.01</v>
       </c>
       <c r="C69">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>0.01</v>
       </c>
       <c r="C70">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3962,7 +3962,7 @@
         <v>0.01</v>
       </c>
       <c r="C71">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3973,7 +3973,7 @@
         <v>0.01</v>
       </c>
       <c r="C72">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3984,7 +3984,7 @@
         <v>0.01</v>
       </c>
       <c r="C73">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3995,7 +3995,7 @@
         <v>0.01</v>
       </c>
       <c r="C74">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
         <v>0.01</v>
       </c>
       <c r="C75">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>0.01</v>
       </c>
       <c r="C76">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>0.01</v>
       </c>
       <c r="C77">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>0.01</v>
       </c>
       <c r="C78">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4050,7 +4050,7 @@
         <v>0.01</v>
       </c>
       <c r="C79">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>0.01</v>
       </c>
       <c r="C80">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>0.01</v>
       </c>
       <c r="C81">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4083,7 +4083,7 @@
         <v>0.01</v>
       </c>
       <c r="C82">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>0.01</v>
       </c>
       <c r="C83">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>0.01</v>
       </c>
       <c r="C84">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>0.01</v>
       </c>
       <c r="C85">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>0.01</v>
       </c>
       <c r="C86">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,7 +4138,7 @@
         <v>0.01</v>
       </c>
       <c r="C87">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
         <v>0.01</v>
       </c>
       <c r="C88">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,7 +4160,7 @@
         <v>0.01</v>
       </c>
       <c r="C89">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>0.01</v>
       </c>
       <c r="C90">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4182,7 +4182,7 @@
         <v>0.01</v>
       </c>
       <c r="C91">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>0.01</v>
       </c>
       <c r="C92">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4204,7 +4204,7 @@
         <v>0.01</v>
       </c>
       <c r="C93">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>0.01</v>
       </c>
       <c r="C94">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4226,7 +4226,7 @@
         <v>0.01</v>
       </c>
       <c r="C95">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4237,7 +4237,7 @@
         <v>0.01</v>
       </c>
       <c r="C96">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4248,7 +4248,7 @@
         <v>0.01</v>
       </c>
       <c r="C97">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
         <v>0.01</v>
       </c>
       <c r="C98">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>0.01</v>
       </c>
       <c r="C99">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>0.01</v>
       </c>
       <c r="C100">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
         <v>0.01</v>
       </c>
       <c r="C101">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>0.01</v>
       </c>
       <c r="C102">
-        <v>1.00000000000019E-2</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD65BB-78DC-D544-8809-5FF9B46F6A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E250D-E9B5-A84B-9CF6-4F5C0AFF3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1381,6 +1381,7 @@
         <c:axId val="1206444448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1419,7 +1420,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Age of battery</a:t>
+                  <a:t>Age of battery (years)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1498,6 +1499,7 @@
         <c:axId val="1206564512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1619,37 +1621,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3175,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E250D-E9B5-A84B-9CF6-4F5C0AFF3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7F13A-72FE-4A4B-8245-063685A52A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="6960" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2821,30 +2824,858 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22176E7F-319F-E742-9A5A-CF8D83823539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9BBAE5-B6B1-A12A-C806-AF874F815D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3479800" y="850900"/>
+          <a:ext cx="10883900" cy="7632700"/>
+          <a:chOff x="3479800" y="850900"/>
+          <a:chExt cx="10883900" cy="7632700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22176E7F-319F-E742-9A5A-CF8D83823539}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3479800" y="850900"/>
+          <a:ext cx="10883900" cy="7632700"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3970F6-69B8-64AF-EBC8-B32C307E1D78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6311900" y="3429000"/>
+            <a:ext cx="0" cy="4241800"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F8A110-1059-194D-9446-E26E59709F9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5651500" y="3721100"/>
+            <a:ext cx="0" cy="3937000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Straight Connector 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6043EC-1F69-A44E-86B1-C54F5199325D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6946900" y="4648200"/>
+            <a:ext cx="0" cy="3022600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Straight Connector 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107F9E6E-F071-EB46-8744-A7DD8C9CE96A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7620000" y="5181600"/>
+            <a:ext cx="0" cy="2489200"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Connector 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5934108-41B3-354E-BC9E-CF6550C68260}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5003800" y="3175000"/>
+            <a:ext cx="0" cy="4495800"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DDD5AC-A988-83C2-E4E8-CD2D39F0CF8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5778500" y="3073400"/>
+            <a:ext cx="1625600" cy="469900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Mean lifetime</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9EDD43-42E8-4CC2-7319-9C1095439E67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5664200" y="5194300"/>
+            <a:ext cx="1295400" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CF5D37-F684-0842-9351-0F8439B378D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5029200" y="6400800"/>
+            <a:ext cx="2590800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1608E699-9264-824A-AD54-B8D2E49864FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5702300" y="4851400"/>
+            <a:ext cx="1625600" cy="469900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>68% of values</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55DCE5F-858A-5B4B-8652-F5DF2002C3AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5702300" y="6070600"/>
+            <a:ext cx="1625600" cy="469900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>99% of values</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3">
+            <v>0.9866666666666668</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="B4">
+            <v>0.97333333333333338</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="B5">
+            <v>0.96000000000000008</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6">
+            <v>0.94666666666666677</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7">
+            <v>0.93333333333333346</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8">
+            <v>0.92000000000000015</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9">
+            <v>0.90666666666666673</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10">
+            <v>0.89333333333333342</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="B11">
+            <v>0.88000000000000012</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="B12">
+            <v>0.86666666666666681</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+          <cell r="B13">
+            <v>0.8533333333333335</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+          <cell r="B14">
+            <v>0.84000000000000008</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+          <cell r="B15">
+            <v>0.82666666666666677</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+          <cell r="B16">
+            <v>0.81333333333333346</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+          <cell r="B17">
+            <v>0.80000000000000016</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+          <cell r="B18">
+            <v>0.78000000000000014</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+          <cell r="B19">
+            <v>0.76000000000000012</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+          <cell r="B20">
+            <v>0.7400000000000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>19</v>
+          </cell>
+          <cell r="B21">
+            <v>0.72000000000000008</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>20</v>
+          </cell>
+          <cell r="B22">
+            <v>0.70000000000000007</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>21</v>
+          </cell>
+          <cell r="B23">
+            <v>0.68</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>22</v>
+          </cell>
+          <cell r="B24">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>23</v>
+          </cell>
+          <cell r="B25">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>24</v>
+          </cell>
+          <cell r="B26">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>25</v>
+          </cell>
+          <cell r="B27">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>26</v>
+          </cell>
+          <cell r="B28">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>27</v>
+          </cell>
+          <cell r="B29">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>28</v>
+          </cell>
+          <cell r="B30">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>29</v>
+          </cell>
+          <cell r="B31">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>30</v>
+          </cell>
+          <cell r="B32">
+            <v>0.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3146,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/degradation_curves_slb.xlsx
+++ b/data/raw_data/degradation_curves_slb.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7F13A-72FE-4A4B-8245-063685A52A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5CCC68-7800-3849-BD5A-985BAE365DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3405,7 +3402,7 @@
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>99% of values</a:t>
+              <a:t>95% of values</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3414,268 +3411,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>0.9866666666666668</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>0.97333333333333338</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5">
-            <v>0.96000000000000008</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="B6">
-            <v>0.94666666666666677</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>0.93333333333333346</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="B8">
-            <v>0.92000000000000015</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="B9">
-            <v>0.90666666666666673</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="B10">
-            <v>0.89333333333333342</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="B11">
-            <v>0.88000000000000012</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="B12">
-            <v>0.86666666666666681</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="B13">
-            <v>0.8533333333333335</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="B14">
-            <v>0.84000000000000008</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="B15">
-            <v>0.82666666666666677</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="B16">
-            <v>0.81333333333333346</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="B17">
-            <v>0.80000000000000016</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="B18">
-            <v>0.78000000000000014</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="B19">
-            <v>0.76000000000000012</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="B20">
-            <v>0.7400000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="B21">
-            <v>0.72000000000000008</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="B22">
-            <v>0.70000000000000007</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="B23">
-            <v>0.68</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="B24">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="B25">
-            <v>0.64</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="B26">
-            <v>0.62</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="B27">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="B28">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="B29">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="B30">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="B31">
-            <v>0.52</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="B32">
-            <v>0.5</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3977,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
